--- a/tables/table 1.xlsx
+++ b/tables/table 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coyotesusd-my.sharepoint.com/personal/jeff_wesner_usd_edu/Documents/USD/Github Projects/nla_lakes/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\OneDrive - The University of South Dakota\USD\Github Projects\nla_lakes\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2F729F8-D5C6-494F-AD8D-963A43E9C71B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D2F729F8-D5C6-494F-AD8D-963A43E9C71B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1EBDB6AA-02A8-4F20-BC3B-7835FD6566C7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{FA33C386-502B-4BBC-983E-709B87E710BE}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C20"/>
+      <selection activeCell="A5" sqref="A5:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,6 +887,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010D08B74DB13F641A1FB2572219BFE55" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72e6b404a86689d5149284bbb843f28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="26133458-dd6b-4323-9224-444c1d830d6d" xmlns:ns4="ab955a96-761f-4c96-a6fc-04b9ce4c53f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2fd11072b5cff02776c944f38ca4696e" ns3:_="" ns4:_="">
     <xsd:import namespace="26133458-dd6b-4323-9224-444c1d830d6d"/>
@@ -1123,15 +1132,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1139,6 +1139,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75765DCE-D28C-4A0A-9685-60E9A8767D6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{303C4703-F646-4FC6-BEBE-5D932EB88B1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1157,25 +1165,17 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75765DCE-D28C-4A0A-9685-60E9A8767D6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2453A9F-DCAC-4CBA-A4F5-5E387C2DF985}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab955a96-761f-4c96-a6fc-04b9ce4c53f5"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="26133458-dd6b-4323-9224-444c1d830d6d"/>
-    <ds:schemaRef ds:uri="ab955a96-761f-4c96-a6fc-04b9ce4c53f5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
